--- a/ig/sd-first-publication-IG-eclaire/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/ig/sd-first-publication-IG-eclaire/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T13:36:43+00:00</t>
+    <t>2023-07-28T13:45:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-first-publication-IG-eclaire/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/ig/sd-first-publication-IG-eclaire/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T13:45:07+00:00</t>
+    <t>2023-07-28T15:22:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-first-publication-IG-eclaire/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/ig/sd-first-publication-IG-eclaire/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:22:22+00:00</t>
+    <t>2023-07-28T15:40:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-first-publication-IG-eclaire/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/ig/sd-first-publication-IG-eclaire/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:40:11+00:00</t>
+    <t>2023-07-28T15:42:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
